--- a/assets/_data/2021.xlsx
+++ b/assets/_data/2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\gitee\shawroger\gaokao\assets\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1665E970-56E0-4921-867E-4FE3C90F5459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEC3FB6-7BA5-41FB-8FDB-46E9A3583C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="110">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,201 @@
   </si>
   <si>
     <t>大气科学类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于飞扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国海洋大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港口航道与港口工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北大学秦皇岛分校</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葛唱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大连理工大学（盘锦校区）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生态工程（生态与食品工科试验班）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦思远</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北农林科技大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农学（农学类）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付文淏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西安电子科技大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛言捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国政法大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融工程（成思危现代金融菁英班）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨逸飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津医科大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临床医学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华北电力大学（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子信息类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王倩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京理工大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程管理类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨柳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华北电力大学（保定）</t>
+  </si>
+  <si>
+    <t>电气类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程文琦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预防医学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘岩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈金皓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合肥工业大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华心语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暨南大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耿延炜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国地质大学（武汉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周雨霏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉理工大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆工程（中外合作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾子卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国石油大学（华东）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太原理工大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据科学与大数据技术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1050,6 +1245,420 @@
         <v>985</v>
       </c>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>620</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>610</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>607</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>593</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>634</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>627</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>625</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>622</v>
+      </c>
+      <c r="E27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>619</v>
+      </c>
+      <c r="E28" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>619</v>
+      </c>
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>615</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>615</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>605</v>
+      </c>
+      <c r="E32" t="s">
+        <v>95</v>
+      </c>
+      <c r="F32" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>600</v>
+      </c>
+      <c r="E33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>600</v>
+      </c>
+      <c r="E34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>594</v>
+      </c>
+      <c r="E35" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>593</v>
+      </c>
+      <c r="E36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>588</v>
+      </c>
+      <c r="E37" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" t="s">
+        <v>109</v>
+      </c>
+      <c r="H37">
+        <v>211</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/_data/2021.xlsx
+++ b/assets/_data/2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\gitee\shawroger\gaokao\assets\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEC3FB6-7BA5-41FB-8FDB-46E9A3583C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051096ED-12BF-482D-A2C8-839FB061F443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="205">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,6 +462,385 @@
   </si>
   <si>
     <t>数据科学与大数据技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗苑宣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王乐鑫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电气工程及其自动化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张烨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京师范大学香港浸会大学联合国际学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济学（合作办学）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周天堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京邮电大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章若曈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海电力大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡乐乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江工商大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘飞扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东师范大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融学类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈邈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厦门大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻传播学类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈佳欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东南大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文科实验班类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张韫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人文科学实验班类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李欣然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外国语言文学类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴怡然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济学类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁如珏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中央民族大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉语国际教育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪梦雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京师范大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴其辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京航空航天大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济与贸易类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郝雯丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国药科大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语（医药方向）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘智婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京农业大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商管理类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程培炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江南大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程梦洁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江贻鋆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱慧怡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁世祥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商管理类</t>
+  </si>
+  <si>
+    <t>何雨晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俄语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王旭玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华东政法大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日语（涉外法商）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张禹欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于静</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西财经大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德语（涉外法商）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柯少婕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海对外经贸大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张怡笑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>何欣雯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪佳欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程咏涵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈世婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喻燕霞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张临风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾姜成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京财经大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽师范大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海理工大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州中医药大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都中医药大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济南大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国语言文学类（师范）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护理学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用心理学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旅游管理类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济管理试验班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉语言文学（师范）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会计学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,15 +1166,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24:H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="31.109375" customWidth="1"/>
+    <col min="5" max="5" width="40" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1659,6 +2038,774 @@
         <v>211</v>
       </c>
     </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>584</v>
+      </c>
+      <c r="E38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>582</v>
+      </c>
+      <c r="E39" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>574</v>
+      </c>
+      <c r="E40" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>614</v>
+      </c>
+      <c r="E41" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>606</v>
+      </c>
+      <c r="E42" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>578</v>
+      </c>
+      <c r="E43" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>569</v>
+      </c>
+      <c r="E44" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>567</v>
+      </c>
+      <c r="E45" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46">
+        <v>650</v>
+      </c>
+      <c r="E46" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" t="s">
+        <v>133</v>
+      </c>
+      <c r="H46">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47">
+        <v>645</v>
+      </c>
+      <c r="E47" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" t="s">
+        <v>137</v>
+      </c>
+      <c r="H47">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48">
+        <v>640</v>
+      </c>
+      <c r="E48" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" t="s">
+        <v>140</v>
+      </c>
+      <c r="H48">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>134</v>
+      </c>
+      <c r="D49">
+        <v>640</v>
+      </c>
+      <c r="E49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" t="s">
+        <v>142</v>
+      </c>
+      <c r="H49">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D50">
+        <v>638</v>
+      </c>
+      <c r="E50" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" t="s">
+        <v>145</v>
+      </c>
+      <c r="H50">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51">
+        <v>634</v>
+      </c>
+      <c r="E51" t="s">
+        <v>147</v>
+      </c>
+      <c r="F51" t="s">
+        <v>148</v>
+      </c>
+      <c r="H51">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52">
+        <v>634</v>
+      </c>
+      <c r="E52" t="s">
+        <v>150</v>
+      </c>
+      <c r="F52" t="s">
+        <v>151</v>
+      </c>
+      <c r="H52">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53">
+        <v>630</v>
+      </c>
+      <c r="E53" t="s">
+        <v>153</v>
+      </c>
+      <c r="F53" t="s">
+        <v>154</v>
+      </c>
+      <c r="H53">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54">
+        <v>621</v>
+      </c>
+      <c r="E54" t="s">
+        <v>156</v>
+      </c>
+      <c r="F54" t="s">
+        <v>157</v>
+      </c>
+      <c r="H54">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55">
+        <v>621</v>
+      </c>
+      <c r="E55" t="s">
+        <v>159</v>
+      </c>
+      <c r="F55" t="s">
+        <v>160</v>
+      </c>
+      <c r="H55">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56">
+        <v>620</v>
+      </c>
+      <c r="E56" t="s">
+        <v>162</v>
+      </c>
+      <c r="F56" t="s">
+        <v>163</v>
+      </c>
+      <c r="H56">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57">
+        <v>618</v>
+      </c>
+      <c r="E57" t="s">
+        <v>111</v>
+      </c>
+      <c r="F57" t="s">
+        <v>151</v>
+      </c>
+      <c r="H57">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>165</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>134</v>
+      </c>
+      <c r="D58">
+        <v>615</v>
+      </c>
+      <c r="E58" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" t="s">
+        <v>145</v>
+      </c>
+      <c r="H58">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>166</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>134</v>
+      </c>
+      <c r="D59">
+        <v>614</v>
+      </c>
+      <c r="E59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" t="s">
+        <v>167</v>
+      </c>
+      <c r="H59">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60">
+        <v>611</v>
+      </c>
+      <c r="E60" t="s">
+        <v>111</v>
+      </c>
+      <c r="F60" t="s">
+        <v>169</v>
+      </c>
+      <c r="H60">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61">
+        <v>611</v>
+      </c>
+      <c r="E61" t="s">
+        <v>111</v>
+      </c>
+      <c r="F61" t="s">
+        <v>171</v>
+      </c>
+      <c r="H61">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>172</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62">
+        <v>628</v>
+      </c>
+      <c r="E62" t="s">
+        <v>173</v>
+      </c>
+      <c r="F62" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63">
+        <v>625</v>
+      </c>
+      <c r="E63" t="s">
+        <v>173</v>
+      </c>
+      <c r="F63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64">
+        <v>623</v>
+      </c>
+      <c r="E64" t="s">
+        <v>177</v>
+      </c>
+      <c r="F64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>179</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65">
+        <v>621</v>
+      </c>
+      <c r="E65" t="s">
+        <v>180</v>
+      </c>
+      <c r="F65" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>182</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66">
+        <v>609</v>
+      </c>
+      <c r="E66" t="s">
+        <v>190</v>
+      </c>
+      <c r="F66" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67">
+        <v>608</v>
+      </c>
+      <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68">
+        <v>605</v>
+      </c>
+      <c r="E68" t="s">
+        <v>191</v>
+      </c>
+      <c r="F68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69">
+        <v>604</v>
+      </c>
+      <c r="E69" t="s">
+        <v>192</v>
+      </c>
+      <c r="F69" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70">
+        <v>604</v>
+      </c>
+      <c r="E70" t="s">
+        <v>193</v>
+      </c>
+      <c r="F70" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>187</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71">
+        <v>603</v>
+      </c>
+      <c r="E71" t="s">
+        <v>194</v>
+      </c>
+      <c r="F71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>188</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72">
+        <v>602</v>
+      </c>
+      <c r="E72" t="s">
+        <v>195</v>
+      </c>
+      <c r="F72" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>189</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>134</v>
+      </c>
+      <c r="D73">
+        <v>601</v>
+      </c>
+      <c r="E73" t="s">
+        <v>196</v>
+      </c>
+      <c r="F73" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
